--- a/DSP/ATA-Backend/DSP-SW1 (400G).xlsx
+++ b/DSP/ATA-Backend/DSP-SW1 (400G).xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/DSP/ATA-Backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97C542D-6CB9-D144-A3AF-AF62AB97F19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A8CE85-28E3-FC4B-BD20-6EBC086A8E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-53860" yWindow="5160" windowWidth="28040" windowHeight="17440" xr2:uid="{3B7F585E-BCF0-1945-8C5B-F126B25A3009}"/>
+    <workbookView xWindow="-40020" yWindow="720" windowWidth="42560" windowHeight="24120" xr2:uid="{3B7F585E-BCF0-1945-8C5B-F126B25A3009}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -547,7 +547,7 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
